--- a/election_votar_data/SATKANIA/NALUA/152387/152387_com_969_male_without_photo_55_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/NALUA/152387/152387_com_969_male_without_photo_55_2025-11-24.xlsx
@@ -3339,10 +3339,14 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>দক্ষিণ মরফলা</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr"/>
+          <t>দর্জি</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>২১/০৬/২০০০</t>
+        </is>
+      </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
           <t>আদম মোল্লা বাড়ি, দক্ষিণ মরফলা, মরফলা, সাতকানিয়া, চট্টগ্রাম</t>

--- a/election_votar_data/SATKANIA/NALUA/152387/152387_com_969_male_without_photo_55_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/NALUA/152387/152387_com_969_male_without_photo_55_2025-11-24.xlsx
@@ -3339,14 +3339,10 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>২১/০৬/২০০০</t>
-        </is>
-      </c>
+          <t>দক্ষিণ মরফলা</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr">
         <is>
           <t>আদম মোল্লা বাড়ি, দক্ষিণ মরফলা, মরফলা, সাতকানিয়া, চট্টগ্রাম</t>
